--- a/程序功能書.xlsx
+++ b/程序功能書.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\googleDrive\陽明大學\轉譯醫學\project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9276"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9276" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="連接IOT設備" sheetId="1" r:id="rId1"/>
     <sheet name="數據處理" sheetId="2" r:id="rId2"/>
     <sheet name="連接資訊" sheetId="3" r:id="rId3"/>
-    <sheet name="顯示資訊" sheetId="4" r:id="rId4"/>
+    <sheet name="獲取資料" sheetId="5" r:id="rId4"/>
+    <sheet name="顯示資訊" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
   <si>
     <t>藍芽是否啟動</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,13 +118,105 @@
   </si>
   <si>
     <t>收縮壓(float)、舒張壓(float)、心跳(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將公分轉換成公尺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm2meter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g2kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公分改成公尺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公克改成公斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meter(float)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將公克轉換成公斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kg(float)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g(float)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>center meter(float)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connect2db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連接資料庫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連接是否成功(boolean), 錯誤訊息(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data base location(string), 登入資訊(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得資料庫登入資訊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料庫名稱(float), 使用者編號(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getDbIDPw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得儲存在程式中ID、PW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connect2APIUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>透過url向API傳送data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API url(string)、data(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將API與data串接在一起，並傳送出去，接收回傳資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連接是否成功(boolean), 回傳資料(string), 錯誤訊息(string)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -232,7 +320,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -267,7 +355,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -444,7 +532,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -454,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -656,14 +744,85 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -671,14 +830,95 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -686,9 +926,65 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
